--- a/100 virtualhost.xlsx
+++ b/100 virtualhost.xlsx
@@ -24,10 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="101">
-  <si>
-    <t>172.16.18.200</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="216">
   <si>
     <t>coba1.ac.id</t>
   </si>
@@ -327,16 +324,380 @@
   </si>
   <si>
     <t>coba100.ac.id</t>
+  </si>
+  <si>
+    <t>172.16.18.12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Farrel Nanda </t>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NAMA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Username </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Password </t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>ACHMAD ANDHIKA PRATAMA</t>
+  </si>
+  <si>
+    <t>ACHMAD MAULANA FIRMANSYAH</t>
+  </si>
+  <si>
+    <t>ACHMAD RIFADI</t>
+  </si>
+  <si>
+    <t>AIDIL OKTAVIAN</t>
+  </si>
+  <si>
+    <t>AKHMAD HAFIDZ FIRMANSYAH</t>
+  </si>
+  <si>
+    <t>ALEX HERMANSYAH</t>
+  </si>
+  <si>
+    <t>ALFIN BAGUS SAPUTRA</t>
+  </si>
+  <si>
+    <t>ANDHIKA ARYA SAMUDERA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANDIKA PUTRA PRATAMA </t>
+  </si>
+  <si>
+    <t>ANGGA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANUGRAH DAFA ARISANDI </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BAGUS BHAKTIAR ARDIANSYAH </t>
+  </si>
+  <si>
+    <t>DENI PURWANTO</t>
+  </si>
+  <si>
+    <t>EGA DANANG SETYAWAN</t>
+  </si>
+  <si>
+    <t>FADKHULI NIZAM HABIBI</t>
+  </si>
+  <si>
+    <t>FIKRI ARDINSYAH SAPUTRA</t>
+  </si>
+  <si>
+    <t>IKMAL CHULAIFI PRADITYA</t>
+  </si>
+  <si>
+    <t>IRVAN BAGUS SETIAWAN</t>
+  </si>
+  <si>
+    <t>MOCH. ALDIANO ABIGAIL EFFENDI</t>
+  </si>
+  <si>
+    <t>MOCH. ARIF AFANDI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOCH. RIZAL ZAMANI </t>
+  </si>
+  <si>
+    <t>MOCH. SYAIFUDDIN MUBAROQ</t>
+  </si>
+  <si>
+    <t>MOCH. ZHIDAN ZAKARIYAH</t>
+  </si>
+  <si>
+    <t>MOHAMMAD HARIS SAHAN</t>
+  </si>
+  <si>
+    <t>MUHAMMAD FAREL PRASETYA</t>
+  </si>
+  <si>
+    <t>MUHAMMAD FARREL RIZQI PUTRA ISLAMI PASHA</t>
+  </si>
+  <si>
+    <t>MUHAMMAD HUSAINI RIDWAN</t>
+  </si>
+  <si>
+    <t>MUHAMMAD MIFTAHUL MUTTAQIEN BILLAH</t>
+  </si>
+  <si>
+    <t>MUHAMMAD SAMANUDIN ILHAM</t>
+  </si>
+  <si>
+    <t>NANDA RIZKY SAPUTRA</t>
+  </si>
+  <si>
+    <t>NAYAKA APTA RABBANI</t>
+  </si>
+  <si>
+    <t>RIDHO ARFIANTO ARFAN LIMATAHU</t>
+  </si>
+  <si>
+    <t>VAVIAN RIZZAL ARRIZKY</t>
+  </si>
+  <si>
+    <t>WILDAN KHOIRUL PRATAMA</t>
+  </si>
+  <si>
+    <t>YUSUF ABDUL DJALIL</t>
+  </si>
+  <si>
+    <t>XI TKJ 1</t>
+  </si>
+  <si>
+    <t>https://172.16.18.4:8006</t>
+  </si>
+  <si>
+    <t>https://172.16.18.5:8006</t>
+  </si>
+  <si>
+    <t>https://172.16.18.10:8006</t>
+  </si>
+  <si>
+    <t>https://172.16.18.9:8006</t>
+  </si>
+  <si>
+    <t>SQCH</t>
+  </si>
+  <si>
+    <t>JSVT</t>
+  </si>
+  <si>
+    <t>WDOI</t>
+  </si>
+  <si>
+    <t>ZBEK</t>
+  </si>
+  <si>
+    <t>DHND</t>
+  </si>
+  <si>
+    <t>NGTH</t>
+  </si>
+  <si>
+    <t>QBAW</t>
+  </si>
+  <si>
+    <t>GXIR</t>
+  </si>
+  <si>
+    <t>ZONU</t>
+  </si>
+  <si>
+    <t>CFRW</t>
+  </si>
+  <si>
+    <t>XOQM</t>
+  </si>
+  <si>
+    <t>OFFU</t>
+  </si>
+  <si>
+    <t>EQFS</t>
+  </si>
+  <si>
+    <t>XWFR</t>
+  </si>
+  <si>
+    <t>UFOI</t>
+  </si>
+  <si>
+    <t>YEFA</t>
+  </si>
+  <si>
+    <t>BEKX</t>
+  </si>
+  <si>
+    <t>DQYC</t>
+  </si>
+  <si>
+    <t>XI TKJ 2</t>
+  </si>
+  <si>
+    <t>YNNJ</t>
+  </si>
+  <si>
+    <t>SGOS</t>
+  </si>
+  <si>
+    <t>WCRV</t>
+  </si>
+  <si>
+    <t>KNSJ</t>
+  </si>
+  <si>
+    <t>NCVF</t>
+  </si>
+  <si>
+    <t>ZKTM</t>
+  </si>
+  <si>
+    <t>CXSC</t>
+  </si>
+  <si>
+    <t>USTQ</t>
+  </si>
+  <si>
+    <t>HQJH</t>
+  </si>
+  <si>
+    <t>YOEC</t>
+  </si>
+  <si>
+    <t>TYQZ</t>
+  </si>
+  <si>
+    <t>ZBUY</t>
+  </si>
+  <si>
+    <t>PSKO</t>
+  </si>
+  <si>
+    <t>BGDN</t>
+  </si>
+  <si>
+    <t>CHJI</t>
+  </si>
+  <si>
+    <t>CNTF</t>
+  </si>
+  <si>
+    <t>CWBE</t>
+  </si>
+  <si>
+    <t>AHMAD RAFLY PUTRA IRAWAN</t>
+  </si>
+  <si>
+    <t>AL MALIK BRILLIANT NDARU AKBAR</t>
+  </si>
+  <si>
+    <t>ALIF SALMAN FIRMANSYAH</t>
+  </si>
+  <si>
+    <t>BAGAS PRASETYO WIBOWO</t>
+  </si>
+  <si>
+    <t>DANA ABDU RODZAQ</t>
+  </si>
+  <si>
+    <t>DAVA HAIDAR EKA EMRIZA</t>
+  </si>
+  <si>
+    <t>DICKY RAHMAD DANI</t>
+  </si>
+  <si>
+    <t>FAEZAL RAHADY NUGROHO</t>
+  </si>
+  <si>
+    <t>FARREL AKBAR ANANDA SULISTYO</t>
+  </si>
+  <si>
+    <t>FITRA SAHADEWA HARTONO</t>
+  </si>
+  <si>
+    <t>ILHAM FATCHUR RACHMAN</t>
+  </si>
+  <si>
+    <t>INDAH APRILIA VIDYANINGRUM</t>
+  </si>
+  <si>
+    <t>M. ARDI KOES WARDANA</t>
+  </si>
+  <si>
+    <t>MAULANA NOVAN FIRMANSYAH</t>
+  </si>
+  <si>
+    <t>MOCH. ZAID QOMARUDDIN</t>
+  </si>
+  <si>
+    <t>MOCH. ICHWAN MARSELO</t>
+  </si>
+  <si>
+    <t>MOCH. KHOIRUL ANAM</t>
+  </si>
+  <si>
+    <t>MOH. RIFKI LAFAIS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MUCHAMAT AKBAR AINUR RIZKY </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MUHAMMAD FATKURROHMAN </t>
+  </si>
+  <si>
+    <t>MUHAMMAD GHARY AL BAIHAQI</t>
+  </si>
+  <si>
+    <t>MUHAMMAT FIRDAUS</t>
+  </si>
+  <si>
+    <t>NAZAR JALALLUDIN</t>
+  </si>
+  <si>
+    <t>RAHMAD HIDAYATULLOH</t>
+  </si>
+  <si>
+    <t>RENDRA YASA ANANTA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RENDY MARCELINO </t>
+  </si>
+  <si>
+    <t>RIJAL PRASETYO</t>
+  </si>
+  <si>
+    <t>SALWA MYASHIRA MAHESA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEPTIAN SAMSAN SAPUTRA </t>
+  </si>
+  <si>
+    <t>STEVE SEPTIAN PRAMADANA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YANUAR PUTRA HANDIKA </t>
+  </si>
+  <si>
+    <t>mohammad farel aditya pasha</t>
+  </si>
+  <si>
+    <t>AHMAD RANGGA ASYIFA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -350,7 +711,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -358,14 +719,127 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -644,818 +1118,2227 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B100"/>
+  <dimension ref="A1:M127"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="H47" workbookViewId="0">
+      <selection activeCell="N58" sqref="N58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.140625" customWidth="1"/>
+    <col min="8" max="8" width="45.42578125" customWidth="1"/>
+    <col min="9" max="10" width="11.5703125" customWidth="1"/>
+    <col min="11" max="11" width="33.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="H1" t="s">
+        <v>101</v>
+      </c>
+      <c r="J1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="I4" s="7" t="str">
+        <f ca="1">CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))</f>
+        <v>DYQZ</v>
+      </c>
+      <c r="J4" s="7">
+        <f ca="1">RANDBETWEEN(10000,99999)</f>
+        <v>50597</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>100</v>
+      </c>
+      <c r="B6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" t="s">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>100</v>
+      </c>
+      <c r="B7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="H7" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>100</v>
+      </c>
+      <c r="B8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="H8" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>100</v>
+      </c>
+      <c r="B9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="H9" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="I9" s="8" t="str">
+        <f ca="1">CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))</f>
+        <v>KUSW</v>
+      </c>
+      <c r="J9" s="8">
+        <f ca="1">RANDBETWEEN(10000,99999)</f>
+        <v>10764</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="L9" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>100</v>
+      </c>
+      <c r="B10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="H10" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="6"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>100</v>
+      </c>
+      <c r="B11" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="H11" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="I11" s="8" t="str">
+        <f t="shared" ref="I11" ca="1" si="0">CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))</f>
+        <v>DHVR</v>
+      </c>
+      <c r="J11" s="8">
+        <f t="shared" ref="J11" ca="1" si="1">RANDBETWEEN(10000,99999)</f>
+        <v>89159</v>
+      </c>
+      <c r="K11" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="L11" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>100</v>
+      </c>
+      <c r="B12" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="H12" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="6"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>100</v>
+      </c>
+      <c r="B13" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="H13" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="I13" s="8" t="str">
+        <f t="shared" ref="I13" ca="1" si="2">CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))</f>
+        <v>VACM</v>
+      </c>
+      <c r="J13" s="8">
+        <f t="shared" ref="J13" ca="1" si="3">RANDBETWEEN(10000,99999)</f>
+        <v>49093</v>
+      </c>
+      <c r="K13" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="L13" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>100</v>
+      </c>
+      <c r="B14" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="H14" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="6"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>100</v>
+      </c>
+      <c r="B15" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="H15" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="I15" s="8" t="str">
+        <f t="shared" ref="I15" ca="1" si="4">CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))</f>
+        <v>GFGP</v>
+      </c>
+      <c r="J15" s="8">
+        <f t="shared" ref="J15" ca="1" si="5">RANDBETWEEN(10000,99999)</f>
+        <v>15363</v>
+      </c>
+      <c r="K15" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="L15" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>100</v>
+      </c>
+      <c r="B16" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="H16" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="6"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>100</v>
+      </c>
+      <c r="B17" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="H17" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="I17" s="8" t="str">
+        <f t="shared" ref="I17" ca="1" si="6">CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))</f>
+        <v>VWEM</v>
+      </c>
+      <c r="J17" s="8">
+        <f t="shared" ref="J17" ca="1" si="7">RANDBETWEEN(10000,99999)</f>
+        <v>39033</v>
+      </c>
+      <c r="K17" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="L17" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>100</v>
+      </c>
+      <c r="B18" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B18" t="s">
+      <c r="H18" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="6"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>100</v>
+      </c>
+      <c r="B19" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B19" t="s">
+      <c r="H19" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="I19" s="8" t="str">
+        <f t="shared" ref="I19" ca="1" si="8">CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))</f>
+        <v>OISO</v>
+      </c>
+      <c r="J19" s="8">
+        <f t="shared" ref="J19" ca="1" si="9">RANDBETWEEN(10000,99999)</f>
+        <v>16847</v>
+      </c>
+      <c r="K19" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="L19" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>100</v>
+      </c>
+      <c r="B20" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B20" t="s">
+      <c r="H20" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="6"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>100</v>
+      </c>
+      <c r="B21" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B21" t="s">
+      <c r="H21" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="I21" s="8" t="str">
+        <f t="shared" ref="I21" ca="1" si="10">CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))</f>
+        <v>NMEH</v>
+      </c>
+      <c r="J21" s="8">
+        <f t="shared" ref="J21" ca="1" si="11">RANDBETWEEN(10000,99999)</f>
+        <v>20121</v>
+      </c>
+      <c r="K21" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="L21" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>100</v>
+      </c>
+      <c r="B22" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B22" t="s">
+      <c r="H22" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="6"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>100</v>
+      </c>
+      <c r="B23" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>0</v>
-      </c>
-      <c r="B23" t="s">
+      <c r="H23" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="I23" s="8" t="str">
+        <f t="shared" ref="I23" ca="1" si="12">CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))</f>
+        <v>BKHX</v>
+      </c>
+      <c r="J23" s="8">
+        <f t="shared" ref="J23" ca="1" si="13">RANDBETWEEN(10000,99999)</f>
+        <v>45899</v>
+      </c>
+      <c r="K23" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="L23" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>100</v>
+      </c>
+      <c r="B24" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>0</v>
-      </c>
-      <c r="B24" t="s">
+      <c r="H24" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="6"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>100</v>
+      </c>
+      <c r="B25" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B25" t="s">
+      <c r="H25" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="I25" s="8" t="str">
+        <f t="shared" ref="I25" ca="1" si="14">CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))</f>
+        <v>DOKM</v>
+      </c>
+      <c r="J25" s="8">
+        <f t="shared" ref="J25" ca="1" si="15">RANDBETWEEN(10000,99999)</f>
+        <v>30867</v>
+      </c>
+      <c r="K25" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="L25" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>100</v>
+      </c>
+      <c r="B26" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>0</v>
-      </c>
-      <c r="B26" t="s">
+      <c r="H26" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="6"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>100</v>
+      </c>
+      <c r="B27" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>0</v>
-      </c>
-      <c r="B27" t="s">
+      <c r="H27" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="I27" s="8" t="str">
+        <f t="shared" ref="I27" ca="1" si="16">CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))</f>
+        <v>QEBT</v>
+      </c>
+      <c r="J27" s="8">
+        <f t="shared" ref="J27" ca="1" si="17">RANDBETWEEN(10000,99999)</f>
+        <v>66594</v>
+      </c>
+      <c r="K27" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="L27" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>100</v>
+      </c>
+      <c r="B28" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>0</v>
-      </c>
-      <c r="B28" t="s">
+      <c r="H28" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="12"/>
+      <c r="L28" s="6"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>100</v>
+      </c>
+      <c r="B29" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>0</v>
-      </c>
-      <c r="B29" t="s">
+      <c r="H29" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="I29" s="8" t="str">
+        <f t="shared" ref="I29" ca="1" si="18">CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))</f>
+        <v>QAYP</v>
+      </c>
+      <c r="J29" s="8">
+        <f t="shared" ref="J29" ca="1" si="19">RANDBETWEEN(10000,99999)</f>
+        <v>46386</v>
+      </c>
+      <c r="K29" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="L29" s="6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>100</v>
+      </c>
+      <c r="B30" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>0</v>
-      </c>
-      <c r="B30" t="s">
+      <c r="H30" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="6"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>100</v>
+      </c>
+      <c r="B31" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>0</v>
-      </c>
-      <c r="B31" t="s">
+      <c r="H31" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="I31" s="8" t="str">
+        <f t="shared" ref="I31" ca="1" si="20">CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))</f>
+        <v>YYTV</v>
+      </c>
+      <c r="J31" s="8">
+        <f t="shared" ref="J31" ca="1" si="21">RANDBETWEEN(10000,99999)</f>
+        <v>32885</v>
+      </c>
+      <c r="K31" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="L31" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>100</v>
+      </c>
+      <c r="B32" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>0</v>
-      </c>
-      <c r="B32" t="s">
+      <c r="H32" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="12"/>
+      <c r="L32" s="6"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>100</v>
+      </c>
+      <c r="B33" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>0</v>
-      </c>
-      <c r="B33" t="s">
+      <c r="H33" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="I33" s="8" t="str">
+        <f t="shared" ref="I33" ca="1" si="22">CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))</f>
+        <v>FFFK</v>
+      </c>
+      <c r="J33" s="8">
+        <f t="shared" ref="J33" ca="1" si="23">RANDBETWEEN(10000,99999)</f>
+        <v>81573</v>
+      </c>
+      <c r="K33" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="L33" s="6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>100</v>
+      </c>
+      <c r="B34" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>0</v>
-      </c>
-      <c r="B34" t="s">
+      <c r="H34" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="12"/>
+      <c r="L34" s="6"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>100</v>
+      </c>
+      <c r="B35" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>0</v>
-      </c>
-      <c r="B35" t="s">
+      <c r="H35" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="I35" s="8" t="str">
+        <f t="shared" ref="I35" ca="1" si="24">CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))</f>
+        <v>CJZJ</v>
+      </c>
+      <c r="J35" s="8">
+        <f t="shared" ref="J35" ca="1" si="25">RANDBETWEEN(10000,99999)</f>
+        <v>41687</v>
+      </c>
+      <c r="K35" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="L35" s="6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>100</v>
+      </c>
+      <c r="B36" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>0</v>
-      </c>
-      <c r="B36" t="s">
+      <c r="H36" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="I36" s="8"/>
+      <c r="J36" s="8"/>
+      <c r="K36" s="12"/>
+      <c r="L36" s="6"/>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>100</v>
+      </c>
+      <c r="B37" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>0</v>
-      </c>
-      <c r="B37" t="s">
+      <c r="H37" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="I37" s="8" t="str">
+        <f t="shared" ref="I37" ca="1" si="26">CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))</f>
+        <v>LUXH</v>
+      </c>
+      <c r="J37" s="8">
+        <f t="shared" ref="J37" ca="1" si="27">RANDBETWEEN(10000,99999)</f>
+        <v>26723</v>
+      </c>
+      <c r="K37" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="L37" s="6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>100</v>
+      </c>
+      <c r="B38" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>0</v>
-      </c>
-      <c r="B38" t="s">
+      <c r="H38" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="I38" s="8"/>
+      <c r="J38" s="8"/>
+      <c r="K38" s="12"/>
+      <c r="L38" s="6"/>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>100</v>
+      </c>
+      <c r="B39" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>0</v>
-      </c>
-      <c r="B39" t="s">
+      <c r="H39" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="I39" s="8" t="str">
+        <f t="shared" ref="I39" ca="1" si="28">CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))</f>
+        <v>CKFW</v>
+      </c>
+      <c r="J39" s="8">
+        <f t="shared" ref="J39" ca="1" si="29">RANDBETWEEN(10000,99999)</f>
+        <v>29541</v>
+      </c>
+      <c r="K39" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="L39" s="6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>100</v>
+      </c>
+      <c r="B40" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>0</v>
-      </c>
-      <c r="B40" t="s">
+      <c r="H40" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="I40" s="8"/>
+      <c r="J40" s="8"/>
+      <c r="K40" s="12"/>
+      <c r="L40" s="6"/>
+      <c r="M40">
+        <f>18/4</f>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>100</v>
+      </c>
+      <c r="B41" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>0</v>
-      </c>
-      <c r="B41" t="s">
+      <c r="H41" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="I41" s="8" t="str">
+        <f t="shared" ref="I41" ca="1" si="30">CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))</f>
+        <v>MCYD</v>
+      </c>
+      <c r="J41" s="8">
+        <f t="shared" ref="J41" ca="1" si="31">RANDBETWEEN(10000,99999)</f>
+        <v>45318</v>
+      </c>
+      <c r="K41" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="L41" s="6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>100</v>
+      </c>
+      <c r="B42" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>0</v>
-      </c>
-      <c r="B42" t="s">
+      <c r="H42" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="I42" s="8"/>
+      <c r="J42" s="8"/>
+      <c r="K42" s="12"/>
+      <c r="L42" s="6"/>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>100</v>
+      </c>
+      <c r="B43" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>0</v>
-      </c>
-      <c r="B43" t="s">
+      <c r="H43" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="I43" s="8" t="str">
+        <f t="shared" ref="I43" ca="1" si="32">CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))</f>
+        <v>YJRS</v>
+      </c>
+      <c r="J43" s="8">
+        <f t="shared" ref="J43" ca="1" si="33">RANDBETWEEN(10000,99999)</f>
+        <v>68788</v>
+      </c>
+      <c r="K43" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="L43" s="6">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>100</v>
+      </c>
+      <c r="B44" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>0</v>
-      </c>
-      <c r="B44" t="s">
+      <c r="H44" s="3"/>
+      <c r="I44" s="8"/>
+      <c r="J44" s="8"/>
+      <c r="K44" s="12"/>
+      <c r="L44" s="6"/>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>100</v>
+      </c>
+      <c r="B45" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>0</v>
-      </c>
-      <c r="B45" t="s">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>100</v>
+      </c>
+      <c r="B46" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>0</v>
-      </c>
-      <c r="B46" t="s">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>100</v>
+      </c>
+      <c r="B47" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>0</v>
-      </c>
-      <c r="B47" t="s">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>100</v>
+      </c>
+      <c r="B48" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>0</v>
-      </c>
-      <c r="B48" t="s">
+      <c r="H48" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>100</v>
+      </c>
+      <c r="B49" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>0</v>
-      </c>
-      <c r="B49" t="s">
+      <c r="H49" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="I49" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="J49" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="K49" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>100</v>
+      </c>
+      <c r="B50" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>0</v>
-      </c>
-      <c r="B50" t="s">
+      <c r="H50" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="I50" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="J50" s="10">
+        <v>79887</v>
+      </c>
+      <c r="K50" s="9" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>100</v>
+      </c>
+      <c r="B51" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>0</v>
-      </c>
-      <c r="B51" t="s">
+      <c r="H51" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="I51" s="10"/>
+      <c r="J51" s="10"/>
+      <c r="K51" s="10"/>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>100</v>
+      </c>
+      <c r="B52" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>0</v>
-      </c>
-      <c r="B52" t="s">
+      <c r="H52" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="I52" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="J52" s="10">
+        <v>38527</v>
+      </c>
+      <c r="K52" s="9" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>100</v>
+      </c>
+      <c r="B53" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>0</v>
-      </c>
-      <c r="B53" t="s">
+      <c r="H53" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="I53" s="10"/>
+      <c r="J53" s="10"/>
+      <c r="K53" s="10"/>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>100</v>
+      </c>
+      <c r="B54" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>0</v>
-      </c>
-      <c r="B54" t="s">
+      <c r="H54" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="I54" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="J54" s="10">
+        <v>58293</v>
+      </c>
+      <c r="K54" s="9" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>100</v>
+      </c>
+      <c r="B55" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>0</v>
-      </c>
-      <c r="B55" t="s">
+      <c r="H55" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="I55" s="10"/>
+      <c r="J55" s="10"/>
+      <c r="K55" s="10"/>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>100</v>
+      </c>
+      <c r="B56" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>0</v>
-      </c>
-      <c r="B56" t="s">
+      <c r="H56" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="I56" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="J56" s="10">
+        <v>49238</v>
+      </c>
+      <c r="K56" s="9" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>100</v>
+      </c>
+      <c r="B57" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>0</v>
-      </c>
-      <c r="B57" t="s">
+      <c r="H57" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="I57" s="10"/>
+      <c r="J57" s="10"/>
+      <c r="K57" s="10"/>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>100</v>
+      </c>
+      <c r="B58" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>0</v>
-      </c>
-      <c r="B58" t="s">
+      <c r="H58" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="I58" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="J58" s="10">
+        <v>74796</v>
+      </c>
+      <c r="K58" s="9" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>100</v>
+      </c>
+      <c r="B59" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>0</v>
-      </c>
-      <c r="B59" t="s">
+      <c r="H59" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="I59" s="10"/>
+      <c r="J59" s="10"/>
+      <c r="K59" s="10"/>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>100</v>
+      </c>
+      <c r="B60" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>0</v>
-      </c>
-      <c r="B60" t="s">
+      <c r="H60" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="I60" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="J60" s="10">
+        <v>28998</v>
+      </c>
+      <c r="K60" s="9" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>100</v>
+      </c>
+      <c r="B61" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>0</v>
-      </c>
-      <c r="B61" t="s">
+      <c r="H61" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="I61" s="10"/>
+      <c r="J61" s="10"/>
+      <c r="K61" s="10"/>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>100</v>
+      </c>
+      <c r="B62" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>0</v>
-      </c>
-      <c r="B62" t="s">
+      <c r="H62" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="I62" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="J62" s="10">
+        <v>44326</v>
+      </c>
+      <c r="K62" s="9" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>100</v>
+      </c>
+      <c r="B63" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>0</v>
-      </c>
-      <c r="B63" t="s">
+      <c r="H63" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="I63" s="10"/>
+      <c r="J63" s="10"/>
+      <c r="K63" s="10"/>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>100</v>
+      </c>
+      <c r="B64" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>0</v>
-      </c>
-      <c r="B64" t="s">
+      <c r="H64" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="I64" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="J64" s="10">
+        <v>43242</v>
+      </c>
+      <c r="K64" s="9" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>100</v>
+      </c>
+      <c r="B65" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>0</v>
-      </c>
-      <c r="B65" t="s">
+      <c r="H65" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="I65" s="10"/>
+      <c r="J65" s="10"/>
+      <c r="K65" s="10"/>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>100</v>
+      </c>
+      <c r="B66" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>0</v>
-      </c>
-      <c r="B66" t="s">
+      <c r="H66" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="I66" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="J66" s="10">
+        <v>14413</v>
+      </c>
+      <c r="K66" s="9" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>100</v>
+      </c>
+      <c r="B67" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>0</v>
-      </c>
-      <c r="B67" t="s">
+      <c r="H67" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="I67" s="10"/>
+      <c r="J67" s="10"/>
+      <c r="K67" s="10"/>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>100</v>
+      </c>
+      <c r="B68" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>0</v>
-      </c>
-      <c r="B68" t="s">
+      <c r="H68" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="I68" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="J68" s="10">
+        <v>69787</v>
+      </c>
+      <c r="K68" s="9" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>100</v>
+      </c>
+      <c r="B69" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>0</v>
-      </c>
-      <c r="B69" t="s">
+      <c r="H69" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="I69" s="10"/>
+      <c r="J69" s="10"/>
+      <c r="K69" s="10"/>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>100</v>
+      </c>
+      <c r="B70" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>0</v>
-      </c>
-      <c r="B70" t="s">
+      <c r="H70" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="I70" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="J70" s="10">
+        <v>59221</v>
+      </c>
+      <c r="K70" s="9" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>100</v>
+      </c>
+      <c r="B71" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>0</v>
-      </c>
-      <c r="B71" t="s">
+      <c r="H71" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="I71" s="10"/>
+      <c r="J71" s="10"/>
+      <c r="K71" s="10"/>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>100</v>
+      </c>
+      <c r="B72" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>0</v>
-      </c>
-      <c r="B72" t="s">
+      <c r="H72" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="I72" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="J72" s="10">
+        <v>92067</v>
+      </c>
+      <c r="K72" s="9" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>100</v>
+      </c>
+      <c r="B73" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>0</v>
-      </c>
-      <c r="B73" t="s">
+      <c r="H73" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="I73" s="10"/>
+      <c r="J73" s="10"/>
+      <c r="K73" s="10"/>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>100</v>
+      </c>
+      <c r="B74" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>0</v>
-      </c>
-      <c r="B74" t="s">
+      <c r="H74" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="I74" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="J74" s="10">
+        <v>66383</v>
+      </c>
+      <c r="K74" s="9" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>100</v>
+      </c>
+      <c r="B75" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>0</v>
-      </c>
-      <c r="B75" t="s">
+      <c r="H75" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="I75" s="10"/>
+      <c r="J75" s="10"/>
+      <c r="K75" s="10"/>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>100</v>
+      </c>
+      <c r="B76" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>0</v>
-      </c>
-      <c r="B76" t="s">
+      <c r="H76" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="I76" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="J76" s="10">
+        <v>15862</v>
+      </c>
+      <c r="K76" s="9" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>100</v>
+      </c>
+      <c r="B77" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>0</v>
-      </c>
-      <c r="B77" t="s">
+      <c r="H77" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="I77" s="10"/>
+      <c r="J77" s="10"/>
+      <c r="K77" s="10"/>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>100</v>
+      </c>
+      <c r="B78" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>0</v>
-      </c>
-      <c r="B78" t="s">
+      <c r="H78" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="I78" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="J78" s="10">
+        <v>27243</v>
+      </c>
+      <c r="K78" s="9" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>100</v>
+      </c>
+      <c r="B79" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>0</v>
-      </c>
-      <c r="B79" t="s">
+      <c r="H79" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="I79" s="10"/>
+      <c r="J79" s="10"/>
+      <c r="K79" s="10"/>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>100</v>
+      </c>
+      <c r="B80" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>0</v>
-      </c>
-      <c r="B80" t="s">
+      <c r="H80" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="I80" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="J80" s="10">
+        <v>22009</v>
+      </c>
+      <c r="K80" s="9" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>100</v>
+      </c>
+      <c r="B81" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>0</v>
-      </c>
-      <c r="B81" t="s">
+      <c r="H81" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="I81" s="10"/>
+      <c r="J81" s="10"/>
+      <c r="K81" s="10"/>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>100</v>
+      </c>
+      <c r="B82" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>0</v>
-      </c>
-      <c r="B82" t="s">
+      <c r="H82" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="I82" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="J82" s="10">
+        <v>79265</v>
+      </c>
+      <c r="K82" s="9" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>100</v>
+      </c>
+      <c r="B83" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B83" t="s">
+      <c r="H83" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="I83" s="10"/>
+      <c r="J83" s="10"/>
+      <c r="K83" s="10"/>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>100</v>
+      </c>
+      <c r="B84" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>0</v>
-      </c>
-      <c r="B84" t="s">
+      <c r="H84" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="I84" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="J84" s="10">
+        <v>43956</v>
+      </c>
+      <c r="K84" s="9" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>100</v>
+      </c>
+      <c r="B85" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>0</v>
-      </c>
-      <c r="B85" t="s">
+      <c r="H85" s="3"/>
+      <c r="I85" s="10"/>
+      <c r="J85" s="10"/>
+      <c r="K85" s="10"/>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>100</v>
+      </c>
+      <c r="B86" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>0</v>
-      </c>
-      <c r="B86" t="s">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>100</v>
+      </c>
+      <c r="B87" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>0</v>
-      </c>
-      <c r="B87" t="s">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>100</v>
+      </c>
+      <c r="B88" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>0</v>
-      </c>
-      <c r="B88" t="s">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>100</v>
+      </c>
+      <c r="B89" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>0</v>
-      </c>
-      <c r="B89" t="s">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>100</v>
+      </c>
+      <c r="B90" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>0</v>
-      </c>
-      <c r="B90" t="s">
+      <c r="H90" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>100</v>
+      </c>
+      <c r="B91" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B91" t="s">
+      <c r="H91" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="I91" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="J91" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="K91" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>100</v>
+      </c>
+      <c r="B92" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>0</v>
-      </c>
-      <c r="B92" t="s">
+      <c r="H92" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="I92" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="J92" s="8">
+        <v>93855</v>
+      </c>
+      <c r="K92" s="9" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>100</v>
+      </c>
+      <c r="B93" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>0</v>
-      </c>
-      <c r="B93" t="s">
+      <c r="H93" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="I93" s="8"/>
+      <c r="J93" s="8"/>
+      <c r="K93" s="10"/>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>100</v>
+      </c>
+      <c r="B94" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>0</v>
-      </c>
-      <c r="B94" t="s">
+      <c r="H94" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="I94" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="J94" s="8">
+        <v>87257</v>
+      </c>
+      <c r="K94" s="9" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>100</v>
+      </c>
+      <c r="B95" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>0</v>
-      </c>
-      <c r="B95" t="s">
+      <c r="H95" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="I95" s="8"/>
+      <c r="J95" s="8"/>
+      <c r="K95" s="10"/>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>100</v>
+      </c>
+      <c r="B96" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>0</v>
-      </c>
-      <c r="B96" t="s">
+      <c r="H96" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="I96" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="J96" s="8">
+        <v>74995</v>
+      </c>
+      <c r="K96" s="9" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>100</v>
+      </c>
+      <c r="B97" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>0</v>
-      </c>
-      <c r="B97" t="s">
+      <c r="H97" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="I97" s="8"/>
+      <c r="J97" s="8"/>
+      <c r="K97" s="10"/>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>100</v>
+      </c>
+      <c r="B98" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>0</v>
-      </c>
-      <c r="B98" t="s">
+      <c r="H98" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="I98" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="J98" s="8">
+        <v>16296</v>
+      </c>
+      <c r="K98" s="9" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>100</v>
+      </c>
+      <c r="B99" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>0</v>
-      </c>
-      <c r="B99" t="s">
+      <c r="H99" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="I99" s="8"/>
+      <c r="J99" s="8"/>
+      <c r="K99" s="10"/>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>100</v>
+      </c>
+      <c r="B100" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>0</v>
-      </c>
-      <c r="B100" t="s">
-        <v>100</v>
-      </c>
+      <c r="H100" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="I100" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="J100" s="8">
+        <v>45587</v>
+      </c>
+      <c r="K100" s="9" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H101" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="I101" s="8"/>
+      <c r="J101" s="8"/>
+      <c r="K101" s="10"/>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H102" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="I102" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="J102" s="8">
+        <v>97343</v>
+      </c>
+      <c r="K102" s="9" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H103" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="I103" s="8"/>
+      <c r="J103" s="8"/>
+      <c r="K103" s="10"/>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H104" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="I104" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="J104" s="8">
+        <v>63091</v>
+      </c>
+      <c r="K104" s="9" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H105" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="I105" s="8"/>
+      <c r="J105" s="8"/>
+      <c r="K105" s="10"/>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H106" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="I106" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="J106" s="8">
+        <v>46506</v>
+      </c>
+      <c r="K106" s="11" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H107" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="I107" s="8"/>
+      <c r="J107" s="8"/>
+      <c r="K107" s="12"/>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H108" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="I108" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="J108" s="8">
+        <v>37307</v>
+      </c>
+      <c r="K108" s="11" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H109" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="I109" s="8"/>
+      <c r="J109" s="8"/>
+      <c r="K109" s="12"/>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H110" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="I110" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="J110" s="8">
+        <v>46365</v>
+      </c>
+      <c r="K110" s="11" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H111" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="I111" s="8"/>
+      <c r="J111" s="8"/>
+      <c r="K111" s="12"/>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H112" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="I112" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="J112" s="8">
+        <v>20026</v>
+      </c>
+      <c r="K112" s="11" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="113" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H113" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="I113" s="8"/>
+      <c r="J113" s="8"/>
+      <c r="K113" s="12"/>
+    </row>
+    <row r="114" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H114" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="I114" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="J114" s="8">
+        <v>88723</v>
+      </c>
+      <c r="K114" s="11" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="115" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H115" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="I115" s="8"/>
+      <c r="J115" s="8"/>
+      <c r="K115" s="12"/>
+    </row>
+    <row r="116" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H116" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="I116" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="J116" s="8">
+        <v>12218</v>
+      </c>
+      <c r="K116" s="11" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="117" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H117" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="I117" s="8"/>
+      <c r="J117" s="8"/>
+      <c r="K117" s="12"/>
+    </row>
+    <row r="118" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H118" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="I118" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="J118" s="8">
+        <v>40445</v>
+      </c>
+      <c r="K118" s="11" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="119" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H119" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="I119" s="8"/>
+      <c r="J119" s="8"/>
+      <c r="K119" s="12"/>
+    </row>
+    <row r="120" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H120" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="I120" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="J120" s="8">
+        <v>81204</v>
+      </c>
+      <c r="K120" s="11" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="121" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H121" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="I121" s="8"/>
+      <c r="J121" s="8"/>
+      <c r="K121" s="12"/>
+    </row>
+    <row r="122" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H122" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="I122" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="J122" s="8">
+        <v>11369</v>
+      </c>
+      <c r="K122" s="11" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="123" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H123" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="I123" s="8"/>
+      <c r="J123" s="8"/>
+      <c r="K123" s="12"/>
+    </row>
+    <row r="124" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H124" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="I124" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="J124" s="8">
+        <v>93291</v>
+      </c>
+      <c r="K124" s="11" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="125" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H125" s="3"/>
+      <c r="I125" s="8"/>
+      <c r="J125" s="8"/>
+      <c r="K125" s="12"/>
+    </row>
+    <row r="126" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H126" s="1"/>
+      <c r="I126" s="13"/>
+      <c r="J126" s="13"/>
+      <c r="K126" s="14"/>
+    </row>
+    <row r="127" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H127" s="15"/>
+      <c r="I127" s="16"/>
+      <c r="J127" s="16"/>
+      <c r="K127" s="17"/>
     </row>
   </sheetData>
+  <mergeCells count="182">
+    <mergeCell ref="I126:I127"/>
+    <mergeCell ref="J126:J127"/>
+    <mergeCell ref="K126:K127"/>
+    <mergeCell ref="I122:I123"/>
+    <mergeCell ref="J122:J123"/>
+    <mergeCell ref="K122:K123"/>
+    <mergeCell ref="I124:I125"/>
+    <mergeCell ref="J124:J125"/>
+    <mergeCell ref="K124:K125"/>
+    <mergeCell ref="I118:I119"/>
+    <mergeCell ref="J118:J119"/>
+    <mergeCell ref="K118:K119"/>
+    <mergeCell ref="I120:I121"/>
+    <mergeCell ref="J120:J121"/>
+    <mergeCell ref="K120:K121"/>
+    <mergeCell ref="I114:I115"/>
+    <mergeCell ref="J114:J115"/>
+    <mergeCell ref="K114:K115"/>
+    <mergeCell ref="I116:I117"/>
+    <mergeCell ref="J116:J117"/>
+    <mergeCell ref="K116:K117"/>
+    <mergeCell ref="I110:I111"/>
+    <mergeCell ref="J110:J111"/>
+    <mergeCell ref="K110:K111"/>
+    <mergeCell ref="I112:I113"/>
+    <mergeCell ref="J112:J113"/>
+    <mergeCell ref="K112:K113"/>
+    <mergeCell ref="I106:I107"/>
+    <mergeCell ref="J106:J107"/>
+    <mergeCell ref="K106:K107"/>
+    <mergeCell ref="I108:I109"/>
+    <mergeCell ref="J108:J109"/>
+    <mergeCell ref="K108:K109"/>
+    <mergeCell ref="I102:I103"/>
+    <mergeCell ref="J102:J103"/>
+    <mergeCell ref="K102:K103"/>
+    <mergeCell ref="I104:I105"/>
+    <mergeCell ref="J104:J105"/>
+    <mergeCell ref="K104:K105"/>
+    <mergeCell ref="I98:I99"/>
+    <mergeCell ref="J98:J99"/>
+    <mergeCell ref="K98:K99"/>
+    <mergeCell ref="I100:I101"/>
+    <mergeCell ref="J100:J101"/>
+    <mergeCell ref="K100:K101"/>
+    <mergeCell ref="I94:I95"/>
+    <mergeCell ref="J94:J95"/>
+    <mergeCell ref="K94:K95"/>
+    <mergeCell ref="I96:I97"/>
+    <mergeCell ref="J96:J97"/>
+    <mergeCell ref="K96:K97"/>
+    <mergeCell ref="K76:K77"/>
+    <mergeCell ref="K78:K79"/>
+    <mergeCell ref="K80:K81"/>
+    <mergeCell ref="K82:K83"/>
+    <mergeCell ref="K84:K85"/>
+    <mergeCell ref="I92:I93"/>
+    <mergeCell ref="J92:J93"/>
+    <mergeCell ref="K92:K93"/>
+    <mergeCell ref="K64:K65"/>
+    <mergeCell ref="K66:K67"/>
+    <mergeCell ref="K68:K69"/>
+    <mergeCell ref="K70:K71"/>
+    <mergeCell ref="K72:K73"/>
+    <mergeCell ref="K74:K75"/>
+    <mergeCell ref="K52:K53"/>
+    <mergeCell ref="K54:K55"/>
+    <mergeCell ref="K56:K57"/>
+    <mergeCell ref="K58:K59"/>
+    <mergeCell ref="K60:K61"/>
+    <mergeCell ref="K62:K63"/>
+    <mergeCell ref="J74:J75"/>
+    <mergeCell ref="J76:J77"/>
+    <mergeCell ref="J78:J79"/>
+    <mergeCell ref="J80:J81"/>
+    <mergeCell ref="J82:J83"/>
+    <mergeCell ref="J84:J85"/>
+    <mergeCell ref="J62:J63"/>
+    <mergeCell ref="J64:J65"/>
+    <mergeCell ref="J66:J67"/>
+    <mergeCell ref="J68:J69"/>
+    <mergeCell ref="J70:J71"/>
+    <mergeCell ref="J72:J73"/>
+    <mergeCell ref="I76:I77"/>
+    <mergeCell ref="I78:I79"/>
+    <mergeCell ref="I80:I81"/>
+    <mergeCell ref="I82:I83"/>
+    <mergeCell ref="I84:I85"/>
+    <mergeCell ref="J52:J53"/>
+    <mergeCell ref="J54:J55"/>
+    <mergeCell ref="J56:J57"/>
+    <mergeCell ref="J58:J59"/>
+    <mergeCell ref="J60:J61"/>
+    <mergeCell ref="I64:I65"/>
+    <mergeCell ref="I66:I67"/>
+    <mergeCell ref="I68:I69"/>
+    <mergeCell ref="I70:I71"/>
+    <mergeCell ref="I72:I73"/>
+    <mergeCell ref="I74:I75"/>
+    <mergeCell ref="I52:I53"/>
+    <mergeCell ref="I54:I55"/>
+    <mergeCell ref="I56:I57"/>
+    <mergeCell ref="I58:I59"/>
+    <mergeCell ref="I60:I61"/>
+    <mergeCell ref="I62:I63"/>
+    <mergeCell ref="K35:K36"/>
+    <mergeCell ref="K37:K38"/>
+    <mergeCell ref="K39:K40"/>
+    <mergeCell ref="K41:K42"/>
+    <mergeCell ref="K27:K28"/>
+    <mergeCell ref="I50:I51"/>
+    <mergeCell ref="J50:J51"/>
+    <mergeCell ref="K50:K51"/>
+    <mergeCell ref="K43:K44"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="K25:K26"/>
+    <mergeCell ref="K29:K30"/>
+    <mergeCell ref="K31:K32"/>
+    <mergeCell ref="K33:K34"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="L33:L34"/>
+    <mergeCell ref="L35:L36"/>
+    <mergeCell ref="L37:L38"/>
+    <mergeCell ref="L39:L40"/>
+    <mergeCell ref="L41:L42"/>
+    <mergeCell ref="L43:L44"/>
+    <mergeCell ref="L21:L22"/>
+    <mergeCell ref="L23:L24"/>
+    <mergeCell ref="L25:L26"/>
+    <mergeCell ref="L27:L28"/>
+    <mergeCell ref="L29:L30"/>
+    <mergeCell ref="L31:L32"/>
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="L17:L18"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="I41:I42"/>
+    <mergeCell ref="J41:J42"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="J43:J44"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="J37:J38"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="J39:J40"/>
+    <mergeCell ref="I33:I34"/>
+    <mergeCell ref="J33:J34"/>
+    <mergeCell ref="I35:I36"/>
+    <mergeCell ref="J35:J36"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="J29:J30"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="J31:J32"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="J25:J26"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="J27:J28"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="K11:K12"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="K9" r:id="rId1"/>
+    <hyperlink ref="K11" r:id="rId2"/>
+    <hyperlink ref="K13" r:id="rId3"/>
+    <hyperlink ref="K15" r:id="rId4"/>
+    <hyperlink ref="K17" r:id="rId5"/>
+    <hyperlink ref="K19" r:id="rId6"/>
+    <hyperlink ref="K21" r:id="rId7"/>
+    <hyperlink ref="K23" r:id="rId8"/>
+    <hyperlink ref="K25" r:id="rId9"/>
+    <hyperlink ref="K29" r:id="rId10"/>
+    <hyperlink ref="K37" r:id="rId11"/>
+    <hyperlink ref="K39" r:id="rId12"/>
+    <hyperlink ref="K41" r:id="rId13"/>
+    <hyperlink ref="K43" r:id="rId14"/>
+    <hyperlink ref="K31" r:id="rId15"/>
+    <hyperlink ref="K33" r:id="rId16"/>
+    <hyperlink ref="K35" r:id="rId17"/>
+    <hyperlink ref="K27" r:id="rId18"/>
+    <hyperlink ref="K50" r:id="rId19"/>
+    <hyperlink ref="K92" r:id="rId20"/>
+    <hyperlink ref="K94" r:id="rId21"/>
+    <hyperlink ref="K96" r:id="rId22"/>
+    <hyperlink ref="K98" r:id="rId23"/>
+    <hyperlink ref="K100" r:id="rId24"/>
+    <hyperlink ref="K102" r:id="rId25"/>
+    <hyperlink ref="K104" r:id="rId26"/>
+    <hyperlink ref="K106" r:id="rId27"/>
+    <hyperlink ref="K108" r:id="rId28"/>
+    <hyperlink ref="K112" r:id="rId29"/>
+    <hyperlink ref="K120" r:id="rId30"/>
+    <hyperlink ref="K122" r:id="rId31"/>
+    <hyperlink ref="K124" r:id="rId32"/>
+    <hyperlink ref="K114" r:id="rId33"/>
+    <hyperlink ref="K116" r:id="rId34"/>
+    <hyperlink ref="K118" r:id="rId35"/>
+    <hyperlink ref="K110" r:id="rId36"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId37"/>
 </worksheet>
 </file>